--- a/data/trans_dic/IP37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP37-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,58; 91,85</t>
+          <t>37,56; 91,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,09; 89,1</t>
+          <t>43,55; 89,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,86; 100,0</t>
+          <t>56,01; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,14; 100,0</t>
+          <t>46,38; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,93; 94,04</t>
+          <t>51,86; 94,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,96; 92,0</t>
+          <t>44,07; 91,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,44; 91,97</t>
+          <t>56,88; 88,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57,65; 88,07</t>
+          <t>57,56; 88,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62,14; 93,24</t>
+          <t>61,12; 93,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,6; 74,33</t>
+          <t>57,0; 74,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,77; 81,94</t>
+          <t>65,41; 81,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,05; 80,8</t>
+          <t>63,75; 81,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 100,0</t>
+          <t>13,66; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,79; 65,17</t>
+          <t>43,94; 63,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,65; 85,86</t>
+          <t>67,98; 85,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,62; 80,77</t>
+          <t>61,69; 80,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 83,22</t>
+          <t>18,66; 82,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,01; 67,22</t>
+          <t>53,77; 67,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69,73; 81,33</t>
+          <t>69,67; 81,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>65,1; 78,14</t>
+          <t>65,83; 78,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 79,99</t>
+          <t>29,85; 78,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,31; 71,61</t>
+          <t>56,36; 71,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,63; 85,25</t>
+          <t>73,93; 84,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,33; 74,99</t>
+          <t>60,97; 75,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 78,53</t>
+          <t>22,18; 79,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,03; 64,58</t>
+          <t>47,81; 64,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,72; 83,59</t>
+          <t>71,36; 83,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,22; 86,81</t>
+          <t>75,24; 87,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,88; 87,46</t>
+          <t>21,27; 86,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,82; 65,69</t>
+          <t>55,04; 65,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,73; 83,2</t>
+          <t>74,39; 82,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,88; 78,98</t>
+          <t>69,41; 78,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,84; 71,46</t>
+          <t>30,09; 73,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,8; 71,63</t>
+          <t>53,12; 71,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,53; 74,47</t>
+          <t>58,14; 73,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,42; 81,24</t>
+          <t>66,11; 81,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 88,91</t>
+          <t>15,43; 88,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,41; 71,24</t>
+          <t>54,55; 72,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,06; 81,0</t>
+          <t>65,17; 80,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,25; 78,58</t>
+          <t>62,39; 77,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,01</t>
+          <t>0,0; 39,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,93; 69,48</t>
+          <t>56,13; 69,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,19; 75,37</t>
+          <t>64,48; 75,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>65,62; 77,27</t>
+          <t>65,9; 76,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 50,34</t>
+          <t>8,66; 49,72</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,86; 68,04</t>
+          <t>49,07; 68,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,44; 78,43</t>
+          <t>62,49; 79,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,01; 85,22</t>
+          <t>70,0; 84,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,41; 75,98</t>
+          <t>55,57; 74,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,26; 83,7</t>
+          <t>70,41; 83,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,48; 85,92</t>
+          <t>71,19; 85,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,64</t>
+          <t>0,0; 57,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,45; 69,37</t>
+          <t>56,67; 69,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>69,0; 79,45</t>
+          <t>69,38; 80,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,28; 83,73</t>
+          <t>73,48; 83,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 69,36</t>
+          <t>7,05; 62,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,67; 67,31</t>
+          <t>59,15; 67,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,61; 77,01</t>
+          <t>69,57; 76,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,44; 77,01</t>
+          <t>69,31; 76,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,3; 72,88</t>
+          <t>33,3; 71,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,7; 65,41</t>
+          <t>56,76; 66,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,1; 80,26</t>
+          <t>73,55; 80,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,54; 79,83</t>
+          <t>72,7; 79,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 47,3</t>
+          <t>18,15; 48,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,24</t>
+          <t>58,94; 65,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>72,44; 77,4</t>
+          <t>72,75; 77,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>71,97; 77,52</t>
+          <t>72,12; 77,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,48; 54,87</t>
+          <t>30,57; 54,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP37-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>68,75%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>72,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>66,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>79,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>75,13%</t>
+          <t>75,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>80,77%</t>
+          <t>73,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>72,08%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,56; 91,93</t>
+          <t>49,58; 69,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,55; 89,27</t>
+          <t>70,39; 86,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,01; 100,0</t>
+          <t>64,11; 80,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,83; 75,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,38; 100,0</t>
+          <t>56,96; 74,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,86; 94,18</t>
+          <t>65,74; 80,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,07; 91,97</t>
+          <t>64,9; 81,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>63,91; 89,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,88; 88,95</t>
+          <t>56,83; 69,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57,56; 88,66</t>
+          <t>69,96; 80,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,12; 93,78</t>
+          <t>67,29; 79,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>63,66; 79,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>66,31%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,75%</t>
+          <t>77,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>68,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,84%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>75,82%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>74,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>70,97%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,0; 74,95</t>
+          <t>48,1; 64,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,41; 81,38</t>
+          <t>72,05; 83,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,75; 81,18</t>
+          <t>75,51; 86,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 100,0</t>
+          <t>62,43; 84,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,94; 63,66</t>
+          <t>56,62; 71,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,98; 85,61</t>
+          <t>73,55; 84,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,69; 80,53</t>
+          <t>61,39; 75,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 82,45</t>
+          <t>56,84; 76,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,77; 67,99</t>
+          <t>54,69; 65,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69,67; 81,56</t>
+          <t>74,71; 83,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>65,83; 78,57</t>
+          <t>69,75; 78,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 78,55</t>
+          <t>62,69; 78,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>62,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>63,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>73,03%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,36; 71,71</t>
+          <t>54,38; 72,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,93; 84,84</t>
+          <t>64,13; 80,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,97; 75,06</t>
+          <t>61,37; 77,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 79,03</t>
+          <t>60,41; 89,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,81; 64,04</t>
+          <t>53,48; 72,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,36; 83,53</t>
+          <t>58,52; 74,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,24; 87,16</t>
+          <t>65,32; 81,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 86,3</t>
+          <t>59,71; 80,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>55,04; 65,97</t>
+          <t>55,99; 69,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,39; 82,76</t>
+          <t>63,61; 75,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,41; 78,93</t>
+          <t>66,26; 77,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,09; 73,75</t>
+          <t>64,29; 84,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>77,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73,67%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>59,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,22%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>65,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>63,2%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,12; 71,1</t>
+          <t>57,39; 75,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,14; 73,77</t>
+          <t>70,65; 84,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,11; 81,3</t>
+          <t>71,11; 85,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 88,85</t>
+          <t>48,52; 71,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,55; 72,29</t>
+          <t>49,31; 69,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,17; 80,25</t>
+          <t>64,23; 79,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,39; 77,93</t>
+          <t>69,24; 84,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,85</t>
+          <t>54,74; 75,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,13; 69,01</t>
+          <t>56,06; 69,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,48; 75,1</t>
+          <t>69,01; 79,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>65,9; 76,65</t>
+          <t>72,73; 84,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 49,72</t>
+          <t>55,52; 70,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,62%</t>
+          <t>73,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,89%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>75,12%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>74,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>70,11%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,07; 68,05</t>
+          <t>56,86; 66,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,49; 79,48</t>
+          <t>73,46; 80,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,0; 84,86</t>
+          <t>72,36; 79,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>63,64; 79,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,57; 74,55</t>
+          <t>58,76; 67,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,41; 83,81</t>
+          <t>69,75; 76,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,19; 85,08</t>
+          <t>69,34; 76,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,72</t>
+          <t>64,93; 75,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,67; 69,77</t>
+          <t>58,98; 65,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>69,38; 80,12</t>
+          <t>72,56; 77,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,48; 83,31</t>
+          <t>72,04; 77,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 62,2</t>
+          <t>65,78; 75,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>63,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>73,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>73,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>54,45%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>61,13%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>76,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>76,4%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>31,78%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>62,3%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>75,12%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>74,78%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>42,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>59,15; 67,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>69,57; 76,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>69,31; 76,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>33,3; 71,36</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>56,76; 66,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>73,55; 80,64</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>72,7; 79,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>18,15; 48,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>58,94; 65,55</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>72,75; 77,73</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>72,12; 77,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>30,57; 54,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
